--- a/markdown_gen/publications.xlsx
+++ b/markdown_gen/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\httim\Documents\ht-timchen.github.io\markdown_generator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/ht-timchen-beautiful/markdown_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4657193-80CB-4D46-BACF-7B5A38F65423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265179D3-1B7B-9647-9DC8-08156F493445}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17970" yWindow="1245" windowWidth="19590" windowHeight="18135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17980" yWindow="1240" windowWidth="26920" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -196,9 +196,6 @@
     <t>NeuroImage (IF=5.90)</t>
   </si>
   <si>
-    <t>2020_Neuroimage.jpg</t>
-  </si>
-  <si>
     <t>2020_TCDS.jpg</t>
   </si>
   <si>
@@ -248,6 +245,9 @@
   </si>
   <si>
     <t>2011_rev.jpg</t>
+  </si>
+  <si>
+    <t>2020_neuroimage.jpg</t>
   </si>
 </sst>
 </file>
@@ -1108,18 +1108,18 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="55" style="2" customWidth="1"/>
-    <col min="3" max="4" width="43.140625" style="4" customWidth="1"/>
+    <col min="3" max="4" width="43.1640625" style="4" customWidth="1"/>
     <col min="5" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2020</v>
       </c>
@@ -1156,10 +1156,10 @@
         <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -1173,10 +1173,10 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2019</v>
       </c>
@@ -1190,10 +1190,10 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -1207,10 +1207,10 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -1224,10 +1224,10 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2018</v>
       </c>
@@ -1241,10 +1241,10 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2017</v>
       </c>
@@ -1258,10 +1258,10 @@
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2016</v>
       </c>
@@ -1275,10 +1275,10 @@
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -1292,10 +1292,10 @@
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2016</v>
       </c>
@@ -1309,10 +1309,10 @@
         <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2015</v>
       </c>
@@ -1326,10 +1326,10 @@
         <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2015</v>
       </c>
@@ -1343,10 +1343,10 @@
         <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2015</v>
       </c>
@@ -1360,10 +1360,10 @@
         <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2014</v>
       </c>
@@ -1377,10 +1377,10 @@
         <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -1394,10 +1394,10 @@
         <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2013</v>
       </c>
@@ -1411,10 +1411,10 @@
         <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2013</v>
       </c>
@@ -1428,10 +1428,10 @@
         <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2011</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/markdown_gen/publications.xlsx
+++ b/markdown_gen/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/ht-timchen-beautiful/markdown_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265179D3-1B7B-9647-9DC8-08156F493445}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A86DF37-EC24-DB41-B5FA-F3D747863F11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17980" yWindow="1240" windowWidth="26920" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t>YEAR</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Analysis of VR Sickness and Gait Parameters During Non-Isometric Virtual Walking with Large Translational Gain</t>
   </si>
   <si>
-    <t xml:space="preserve">ACM SIGGRPAH VRCAI </t>
-  </si>
-  <si>
     <t>Towards a Complementary Metric of Haptic Immersion in VR using Event-Related Brain Potentials</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
     <t>Platener: Low-Fidelity Fabrication of 3D Objects by Substituting 3D Print with Laser-Cut Plates</t>
   </si>
   <si>
-    <t xml:space="preserve">ACM CHI </t>
-  </si>
-  <si>
     <t>Autocomplete Painting Repetition</t>
   </si>
   <si>
@@ -248,6 +242,9 @@
   </si>
   <si>
     <t>2020_neuroimage.jpg</t>
+  </si>
+  <si>
+    <t>ACM SIGGRPAH VRCAI</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1105,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1153,10 +1150,10 @@
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1173,7 +1170,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1190,7 +1187,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1201,13 +1198,13 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1215,16 +1212,16 @@
         <v>2019</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1232,16 +1229,16 @@
         <v>2018</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1249,16 +1246,16 @@
         <v>2017</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1266,16 +1263,16 @@
         <v>2016</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1283,16 +1280,16 @@
         <v>2016</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1300,16 +1297,16 @@
         <v>2016</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1317,16 +1314,16 @@
         <v>2015</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1334,16 +1331,16 @@
         <v>2015</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1351,16 +1348,16 @@
         <v>2015</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1368,16 +1365,16 @@
         <v>2014</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1385,16 +1382,16 @@
         <v>2014</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1402,16 +1399,16 @@
         <v>2013</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -1419,16 +1416,16 @@
         <v>2013</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="D18" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1436,16 +1433,16 @@
         <v>2011</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/markdown_gen/publications.xlsx
+++ b/markdown_gen/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/ht-timchen-beautiful/markdown_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A86DF37-EC24-DB41-B5FA-F3D747863F11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA7DEC8-E5F7-4B4E-87BC-920FA46F9165}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17980" yWindow="1240" windowWidth="26920" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
   <si>
     <t>YEAR</t>
   </si>
@@ -245,6 +245,57 @@
   </si>
   <si>
     <t>ACM SIGGRPAH VRCAI</t>
+  </si>
+  <si>
+    <t>2011_SIG_revision.pdf</t>
+  </si>
+  <si>
+    <t>2013_PG_Splattering.pdf</t>
+  </si>
+  <si>
+    <t>2013_VRST_Faceton.pdf</t>
+  </si>
+  <si>
+    <t>2014_CHI_viewpoint.pdf</t>
+  </si>
+  <si>
+    <t>2014_SA_Autocomplete.pdf</t>
+  </si>
+  <si>
+    <t>2015_CHI_platener.pdf</t>
+  </si>
+  <si>
+    <t>2015_UIST_Protopiper.pdf</t>
+  </si>
+  <si>
+    <t>2016_I3D_history.pdf</t>
+  </si>
+  <si>
+    <t>2015_UIST_LaserStacker.pdf</t>
+  </si>
+  <si>
+    <t>2016_PG_icon.pdf</t>
+  </si>
+  <si>
+    <t>2016_UIST_Metamaterial.pdf</t>
+  </si>
+  <si>
+    <t>2017_CHI_TrussFab.pdf</t>
+  </si>
+  <si>
+    <t>2018_ACCESS_PredictionError.pdf</t>
+  </si>
+  <si>
+    <t>2019_CHI_HapticImmersion.pdf</t>
+  </si>
+  <si>
+    <t>2019_VRCAI_sickness.pdf</t>
+  </si>
+  <si>
+    <t>2019_TVCG_VR Fall.pdf</t>
+  </si>
+  <si>
+    <t>2020_TCDS_conflict.pdf</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1156,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1172,6 +1223,9 @@
       <c r="E3" t="s">
         <v>56</v>
       </c>
+      <c r="F3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -1189,6 +1243,9 @@
       <c r="E4" t="s">
         <v>57</v>
       </c>
+      <c r="F4" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -1206,6 +1263,9 @@
       <c r="E5" t="s">
         <v>58</v>
       </c>
+      <c r="F5" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -1223,6 +1283,9 @@
       <c r="E6" t="s">
         <v>59</v>
       </c>
+      <c r="F6" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -1240,6 +1303,9 @@
       <c r="E7" t="s">
         <v>60</v>
       </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -1257,6 +1323,9 @@
       <c r="E8" t="s">
         <v>61</v>
       </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -1274,6 +1343,9 @@
       <c r="E9" t="s">
         <v>62</v>
       </c>
+      <c r="F9" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -1291,6 +1363,9 @@
       <c r="E10" t="s">
         <v>63</v>
       </c>
+      <c r="F10" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -1308,6 +1383,9 @@
       <c r="E11" t="s">
         <v>64</v>
       </c>
+      <c r="F11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -1325,6 +1403,9 @@
       <c r="E12" t="s">
         <v>66</v>
       </c>
+      <c r="F12" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -1342,6 +1423,9 @@
       <c r="E13" t="s">
         <v>65</v>
       </c>
+      <c r="F13" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -1359,6 +1443,9 @@
       <c r="E14" t="s">
         <v>67</v>
       </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -1376,6 +1463,9 @@
       <c r="E15" t="s">
         <v>68</v>
       </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -1393,8 +1483,11 @@
       <c r="E16" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2013</v>
       </c>
@@ -1410,8 +1503,11 @@
       <c r="E17" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2013</v>
       </c>
@@ -1427,8 +1523,11 @@
       <c r="E18" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2011</v>
       </c>
@@ -1443,6 +1542,9 @@
       </c>
       <c r="E19" t="s">
         <v>72</v>
+      </c>
+      <c r="F19" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/markdown_gen/publications.xlsx
+++ b/markdown_gen/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/ht-timchen-beautiful/markdown_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA7DEC8-E5F7-4B4E-87BC-920FA46F9165}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED6980A-00B1-764C-8A9C-2A8A49A627F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17980" yWindow="1240" windowWidth="26920" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,9 +37,6 @@
     <t>IMG</t>
   </si>
   <si>
-    <t>PAPER_URL</t>
-  </si>
-  <si>
     <t>YOUTUBE</t>
   </si>
   <si>
@@ -296,6 +293,9 @@
   </si>
   <si>
     <t>2020_TCDS_conflict.pdf</t>
+  </si>
+  <si>
+    <t>PAPER_NAME</t>
   </si>
 </sst>
 </file>
@@ -1156,7 +1156,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1184,10 +1184,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1195,16 +1195,16 @@
         <v>2020</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1212,19 +1212,19 @@
         <v>2020</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1232,19 +1232,19 @@
         <v>2019</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1252,19 +1252,19 @@
         <v>2019</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1272,19 +1272,19 @@
         <v>2019</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1292,19 +1292,19 @@
         <v>2018</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1312,19 +1312,19 @@
         <v>2017</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1332,19 +1332,19 @@
         <v>2016</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1352,19 +1352,19 @@
         <v>2016</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1372,19 +1372,19 @@
         <v>2016</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1392,19 +1392,19 @@
         <v>2015</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1412,19 +1412,19 @@
         <v>2015</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1432,19 +1432,19 @@
         <v>2015</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1452,19 +1452,19 @@
         <v>2014</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1472,19 +1472,19 @@
         <v>2014</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1492,19 +1492,19 @@
         <v>2013</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -1512,19 +1512,19 @@
         <v>2013</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1532,19 +1532,19 @@
         <v>2011</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/markdown_gen/publications.xlsx
+++ b/markdown_gen/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/ht-timchen-beautiful/markdown_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED6980A-00B1-764C-8A9C-2A8A49A627F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1009826-B0B8-B044-A7F3-36F60980EA76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17980" yWindow="1240" windowWidth="26920" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="106">
   <si>
     <t>YEAR</t>
   </si>
@@ -296,6 +296,48 @@
   </si>
   <si>
     <t>PAPER_NAME</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ERDrDeeRvYQ</t>
+  </si>
+  <si>
+    <t>https://youtu.be/E7w3Z4u1oB0</t>
+  </si>
+  <si>
+    <t>https://youtu.be/aoSzOL9k990</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lsTiWYSfPck</t>
+  </si>
+  <si>
+    <t>https://youtu.be/bGmqtp76Me0</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Cb89iqSRBpw</t>
+  </si>
+  <si>
+    <t>https://youtu.be/puDD_CrVH7g</t>
+  </si>
+  <si>
+    <t>https://youtu.be/beRA4sIjxa8</t>
+  </si>
+  <si>
+    <t>https://youtu.be/hxUitLZaPf4</t>
+  </si>
+  <si>
+    <t>https://youtu.be/m7MEAw46Ojo</t>
+  </si>
+  <si>
+    <t>https://youtu.be/_7r-C7Eg1Pw</t>
+  </si>
+  <si>
+    <t>https://youtu.be/G8lkQ9tLgIs</t>
+  </si>
+  <si>
+    <t>https://youtu.be/oWSqA3KluJA</t>
+  </si>
+  <si>
+    <t>https://youtu.be/RBL1cVzIQik</t>
   </si>
 </sst>
 </file>
@@ -1156,7 +1198,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1164,7 +1206,9 @@
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="55" style="2" customWidth="1"/>
     <col min="3" max="4" width="43.1640625" style="4" customWidth="1"/>
-    <col min="5" max="7" width="15" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1246,6 +1290,9 @@
       <c r="F4" t="s">
         <v>89</v>
       </c>
+      <c r="G4" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -1306,6 +1353,9 @@
       <c r="F7" t="s">
         <v>86</v>
       </c>
+      <c r="G7" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -1326,6 +1376,9 @@
       <c r="F8" t="s">
         <v>85</v>
       </c>
+      <c r="G8" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -1346,6 +1399,9 @@
       <c r="F9" t="s">
         <v>84</v>
       </c>
+      <c r="G9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -1366,6 +1422,9 @@
       <c r="F10" t="s">
         <v>83</v>
       </c>
+      <c r="G10" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -1386,6 +1445,9 @@
       <c r="F11" t="s">
         <v>81</v>
       </c>
+      <c r="G11" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -1406,6 +1468,9 @@
       <c r="F12" t="s">
         <v>82</v>
       </c>
+      <c r="G12" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -1426,6 +1491,9 @@
       <c r="F13" t="s">
         <v>80</v>
       </c>
+      <c r="G13" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -1446,6 +1514,9 @@
       <c r="F14" t="s">
         <v>79</v>
       </c>
+      <c r="G14" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -1466,6 +1537,9 @@
       <c r="F15" t="s">
         <v>78</v>
       </c>
+      <c r="G15" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -1486,8 +1560,11 @@
       <c r="F16" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2013</v>
       </c>
@@ -1506,8 +1583,11 @@
       <c r="F17" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2013</v>
       </c>
@@ -1526,8 +1606,11 @@
       <c r="F18" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2011</v>
       </c>
@@ -1545,6 +1628,9 @@
       </c>
       <c r="F19" t="s">
         <v>74</v>
+      </c>
+      <c r="G19" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/markdown_gen/publications.xlsx
+++ b/markdown_gen/publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/ht-timchen-beautiful/markdown_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1009826-B0B8-B044-A7F3-36F60980EA76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0370421D-4601-5449-BF38-0026A996A6FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17980" yWindow="1240" windowWidth="26920" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="3260" windowWidth="32500" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="107">
   <si>
     <t>YEAR</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>https://youtu.be/RBL1cVzIQik</t>
+  </si>
+  <si>
+    <t>https://youtu.be/PffvKv9H6ac</t>
   </si>
 </sst>
 </file>
@@ -1198,7 +1201,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1235,7 +1238,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="5">
         <v>2020</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1250,9 +1253,12 @@
       <c r="E2" t="s">
         <v>72</v>
       </c>
+      <c r="G2" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="5">
         <v>2020</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1272,7 +1278,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="5">
         <v>2019</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1295,7 +1301,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="5">
         <v>2019</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1315,7 +1321,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="5">
         <v>2019</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1335,7 +1341,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="5">
         <v>2018</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1358,7 +1364,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="5">
         <v>2017</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1381,7 +1387,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="5">
         <v>2016</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1404,7 +1410,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="5">
         <v>2016</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1427,7 +1433,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="5">
         <v>2016</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1450,7 +1456,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="5">
         <v>2015</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1473,7 +1479,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="5">
         <v>2015</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1496,7 +1502,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="5">
         <v>2015</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1519,7 +1525,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="5">
         <v>2014</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1542,7 +1548,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="5">
         <v>2014</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1565,7 +1571,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="5">
         <v>2013</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1588,7 +1594,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="5">
         <v>2013</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1611,7 +1617,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="5">
         <v>2011</v>
       </c>
       <c r="B19" s="3" t="s">

--- a/markdown_gen/publications.xlsx
+++ b/markdown_gen/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/ht-timchen-beautiful/markdown_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0370421D-4601-5449-BF38-0026A996A6FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA43FA6-1E18-9F41-911E-16D0A1C8AA64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5400" yWindow="3260" windowWidth="32500" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="108">
   <si>
     <t>YEAR</t>
   </si>
@@ -341,6 +341,9 @@
   </si>
   <si>
     <t>https://youtu.be/PffvKv9H6ac</t>
+  </si>
+  <si>
+    <t>2020_Neuroimage.pdf</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1204,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1253,6 +1256,9 @@
       <c r="E2" t="s">
         <v>72</v>
       </c>
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
       <c r="G2" t="s">
         <v>106</v>
       </c>

--- a/markdown_gen/publications.xlsx
+++ b/markdown_gen/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/ht-timchen-beautiful/markdown_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA43FA6-1E18-9F41-911E-16D0A1C8AA64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FACB8A4-C207-2B47-A827-64EAFC56F47D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5400" yWindow="3260" windowWidth="32500" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1204,7 +1204,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/markdown_gen/publications.xlsx
+++ b/markdown_gen/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10304"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/ht-timchen-beautiful/markdown_gen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/Repos/ht-timchen.github.io/markdown_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FACB8A4-C207-2B47-A827-64EAFC56F47D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF87119-AF70-F247-9F34-749FD17A2862}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="3260" windowWidth="32500" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="114">
   <si>
     <t>YEAR</t>
   </si>
@@ -148,36 +148,12 @@
     <t>Lukas Gehrke, Sezen Akman, Pedro Lopes, Albert Chen, Avinash Kumar Singh, Tim Chen, Chin-Teng Lin, Klaus Gramann.</t>
   </si>
   <si>
-    <t>Avinash K. Singh, Tim Chen, Yu-Feng Cheng, Jung-Tai King, Li-Wei Ko, Klaus Gramann, and Chin-Teng Lin</t>
-  </si>
-  <si>
-    <t>Robert Kovacs, Anna Seufert, Ludwig Wall, Tim Chen, Florian Meinel, Willi Müller, Si-jing You, Maximilian Brehm, Jonathan Striebel, Yannis Kommana, Alexander Popiak, Thomas Bläsius, and Patrick Baudisch</t>
-  </si>
-  <si>
-    <t>Alexandra Ion, Johannes Frohnhofen, Ludwig Wall,  Robert Kovacs, Mirela Alistar, Jack Lindsay, Pedro Lopes, Tim Chen, and Patrick Baudisch</t>
-  </si>
-  <si>
     <t>Lasse Laursen, Yuki Koyama, Tim Chen, Elena Garces, Diego Gutierrez, Richard Harper, Takeo Igarashi</t>
   </si>
   <si>
     <t>Tim Chen, Li-Yi Wei, Björn Hartmann, and Maneesh Agrawala</t>
   </si>
   <si>
-    <t>Udayan Umapathi, Tim Chen, Stefanie Mueller, Ludwig Wall, Anna Seufert and Patrick Baudisch</t>
-  </si>
-  <si>
-    <t>Harshit Agrawal, Udayan Umapathi, Robert Kovacs, Johannes Frohnhofen, Tim Chen, Stefanie Mueller, Patrick Baudisch</t>
-  </si>
-  <si>
-    <t>Dustin Beyer, Serafima Gurevich, Stefanie Mueller, Tim Chen, Patrick Baudisch</t>
-  </si>
-  <si>
-    <t>Jun Xing, Tim Chen, and Li-Yi Wei</t>
-  </si>
-  <si>
-    <t>Tim Chen, Tovi Grossman, Li-Yi Wei, Ryan Schmidt, Björn Hartmann, George Fitzmaurice, and Maneesh Agrawala</t>
-  </si>
-  <si>
     <t>Naoki Sasaki, Tim Chen, Daisuke Sakamoto, and Takeo Igarashi</t>
   </si>
   <si>
@@ -344,13 +320,68 @@
   </si>
   <si>
     <t>2020_Neuroimage.pdf</t>
+  </si>
+  <si>
+    <t>2021_CHIEA_Drone.pdf</t>
+  </si>
+  <si>
+    <t>2021_CHIEA_Drone.jpg</t>
+  </si>
+  <si>
+    <t>ACM CHI EA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Howe Yuan Zhu, Eirene Margaret Magsino, Sanjid Mahmood Hamim, Chin-Teng Lin, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tim Chen</t>
+    </r>
+  </si>
+  <si>
+    <t>A Drone Nearly Hit Me! A Reflection on the Human Factors of Drone Collisions</t>
+  </si>
+  <si>
+    <t>https://youtu.be/xAMALgG8w7w</t>
+  </si>
+  <si>
+    <t>Jun Xing, Tim Chen, and Li-Yi Wei</t>
+  </si>
+  <si>
+    <t>Udayan Umapathi, Tim Chen, Stefanie Mueller, Ludwig Wall, Anna Seufert, and Patrick Baudisch</t>
+  </si>
+  <si>
+    <t>Harshit Agrawal, Udayan Umapathi, Robert Kovacs, Johannes Frohnhofen, Tim Chen, Stefanie Mueller, and Patrick Baudisch</t>
+  </si>
+  <si>
+    <t>Dustin Beyer, Serafima Gurevich, Stefanie Mueller, Tim Chen, and Patrick Baudisch</t>
+  </si>
+  <si>
+    <t>Robert Kovacs, Anna Seufert, Ludwig Wall, Tim Chen, Florian Meinel, Willi Müller, Si-jing You, Maximilian Brehm, Jonathan Striebel, Yannis Kommana, Alexander Popiak, Thomas Bläsius, and Patrick Baudisch</t>
+  </si>
+  <si>
+    <t>Alexandra Ion, Johannes Frohnhofen, Ludwig Wall, Robert Kovacs, Mirela Alistar, Jack Lindsay, Pedro Lopes, Tim Chen, and Patrick Baudisch</t>
+  </si>
+  <si>
+    <t>Avinash K. Singh, Tim Chen, Yu-Feng Cheng, Jung-Tai King, Li-Wei Ko, Klaus Gramann, and Chin-Teng Lin</t>
+  </si>
+  <si>
+    <t>Tim Chen, Tovi Grossman, Li-Yi Wei, Ryan Schmidt, Bjorn Hartmann, George Fitzmaurice, and Maneesh Agrawala</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,6 +523,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -835,7 +880,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -846,6 +891,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1201,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1234,33 +1280,33 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
-        <v>2020</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
+        <v>2021</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1268,62 +1314,65 @@
         <v>2020</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>99</v>
+      </c>
+      <c r="G3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2019</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>73</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>81</v>
+      </c>
+      <c r="G5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1331,88 +1380,85 @@
         <v>2019</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>42</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
         <v>2017</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C9" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>2016</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1420,22 +1466,22 @@
         <v>2016</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1443,45 +1489,45 @@
         <v>2016</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>2015</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1489,22 +1535,22 @@
         <v>2015</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1512,45 +1558,45 @@
         <v>2015</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
-        <v>2014</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>2015</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G15" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1558,91 +1604,114 @@
         <v>2014</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C17" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>2013</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
         <v>69</v>
       </c>
-      <c r="F17" t="s">
-        <v>76</v>
-      </c>
       <c r="G17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>2013</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
         <v>2011</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="C20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E19" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" t="s">
-        <v>105</v>
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/markdown_gen/publications.xlsx
+++ b/markdown_gen/publications.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10304"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/Repos/ht-timchen.github.io/markdown_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF87119-AF70-F247-9F34-749FD17A2862}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97648F29-CB69-A64F-97F9-E0943DF66DF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,9 +133,6 @@
     <t>Nonlinear Revision Control for Images</t>
   </si>
   <si>
-    <t>Eugene Lei, Ying-Chieh Chen, Tim Chen, and Chun-Fa Chang</t>
-  </si>
-  <si>
     <t>Computer Graphics Forum</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
   </si>
   <si>
     <t>Tim Chen, Li-Yi Wei, and Chun-Fa Chang</t>
-  </si>
-  <si>
-    <t>NeuroImage (IF=5.90)</t>
   </si>
   <si>
     <t>2020_TCDS.jpg</t>
@@ -375,6 +369,12 @@
   </si>
   <si>
     <t>Tim Chen, Tovi Grossman, Li-Yi Wei, Ryan Schmidt, Bjorn Hartmann, George Fitzmaurice, and Maneesh Agrawala</t>
+  </si>
+  <si>
+    <t>Eugene Lei, Ying-Chieh Chen, Tim Chen, and Chun-Fa Chang</t>
+  </si>
+  <si>
+    <t>NeuroImage (h5-i=115)</t>
   </si>
 </sst>
 </file>
@@ -1250,7 +1250,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1280,7 +1280,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -1291,22 +1291,22 @@
         <v>2021</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" t="s">
         <v>103</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1320,16 +1320,16 @@
         <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1346,10 +1346,10 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1366,13 +1366,13 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1383,16 +1383,16 @@
         <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1403,16 +1403,16 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1423,19 +1423,19 @@
         <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1446,19 +1446,19 @@
         <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1469,19 +1469,19 @@
         <v>21</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1492,19 +1492,19 @@
         <v>23</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1515,19 +1515,19 @@
         <v>25</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1538,19 +1538,19 @@
         <v>27</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1561,19 +1561,19 @@
         <v>28</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1584,19 +1584,19 @@
         <v>29</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1607,19 +1607,19 @@
         <v>30</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1630,19 +1630,19 @@
         <v>32</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1653,19 +1653,19 @@
         <v>33</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1676,19 +1676,19 @@
         <v>35</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1699,19 +1699,19 @@
         <v>36</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/markdown_gen/publications.xlsx
+++ b/markdown_gen/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/Repos/ht-timchen.github.io/markdown_gen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/GitHub/ht-timchen.github.io/markdown_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97648F29-CB69-A64F-97F9-E0943DF66DF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F1BC5A-5088-AD4B-BE7A-8677CC590FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23960" yWindow="5240" windowWidth="27800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="120">
   <si>
     <t>YEAR</t>
   </si>
@@ -375,6 +375,24 @@
   </si>
   <si>
     <t>NeuroImage (h5-i=115)</t>
+  </si>
+  <si>
+    <t>Effects of Level of Immersion on Virtual Training Transfer of Bimanual Assembly Tasks</t>
+  </si>
+  <si>
+    <t>Songjia Shen, Tim Chen, William Raffe, and Tuck Wah Leong</t>
+  </si>
+  <si>
+    <t>Frontiers in VR</t>
+  </si>
+  <si>
+    <t>2021_Frontier_Assembly.pdf</t>
+  </si>
+  <si>
+    <t>2021_Frontier_Assembly.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/wdodl_YrNzs</t>
   </si>
 </sst>
 </file>
@@ -1247,10 +1265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1286,50 +1304,50 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>2021</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>99</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>98</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>2020</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1337,62 +1355,65 @@
         <v>2020</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>97</v>
+      </c>
+      <c r="G4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>2019</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>63</v>
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1400,88 +1421,85 @@
         <v>2019</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>110</v>
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
         <v>2017</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>50</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>75</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>2016</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1489,22 +1507,22 @@
         <v>2016</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1512,45 +1530,45 @@
         <v>2016</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>53</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>71</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G13" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>2015</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1558,22 +1576,22 @@
         <v>2015</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1581,45 +1599,45 @@
         <v>2015</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
-        <v>2014</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>2015</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1627,90 +1645,113 @@
         <v>2014</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>58</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" t="s">
         <v>67</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>2013</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>2013</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>60</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>65</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
         <v>2011</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>61</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
         <v>64</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>95</v>
       </c>
     </row>

--- a/markdown_gen/publications.xlsx
+++ b/markdown_gen/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/GitHub/ht-timchen.github.io/markdown_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F1BC5A-5088-AD4B-BE7A-8677CC590FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FD4CE3-8DF9-8340-993C-28CB24526917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23960" yWindow="5240" windowWidth="27800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31760" yWindow="9160" windowWidth="27800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="125">
   <si>
     <t>YEAR</t>
   </si>
@@ -393,6 +393,21 @@
   </si>
   <si>
     <t>https://youtu.be/wdodl_YrNzs</t>
+  </si>
+  <si>
+    <t>The Effects of Virtual and Physical Elevation on Physiological Stress during Virtual Reality Height Exposure</t>
+  </si>
+  <si>
+    <t>Howe Yuan Zhu, Tim Chen, and Chin-Teng Lin</t>
+  </si>
+  <si>
+    <t>2021_TVCG_VRPlank.pdf</t>
+  </si>
+  <si>
+    <t>2021_TVCG_VRPlank.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/3PupSWZg55I</t>
   </si>
 </sst>
 </file>
@@ -1265,10 +1280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1304,73 +1319,73 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2021</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2021</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>118</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>117</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
         <v>2021</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>99</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>98</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>2020</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1378,62 +1393,65 @@
         <v>2020</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>97</v>
+      </c>
+      <c r="G5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>2019</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>63</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1441,88 +1459,85 @@
         <v>2019</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>110</v>
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>2017</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>50</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>75</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>2016</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1530,22 +1545,22 @@
         <v>2016</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1553,45 +1568,45 @@
         <v>2016</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>53</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>71</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>2015</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1599,22 +1614,22 @@
         <v>2015</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1622,45 +1637,45 @@
         <v>2015</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
-        <v>2014</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>30</v>
+        <v>2015</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1668,90 +1683,113 @@
         <v>2014</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>58</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F19" t="s">
         <v>67</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>2013</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>2013</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>60</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
         <v>65</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
         <v>2011</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>61</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F22" t="s">
         <v>64</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G22" t="s">
         <v>95</v>
       </c>
     </row>

--- a/markdown_gen/publications.xlsx
+++ b/markdown_gen/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/GitHub/ht-timchen.github.io/markdown_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FD4CE3-8DF9-8340-993C-28CB24526917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACD9E9D-C359-B744-B830-AAF9ACE1BDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31760" yWindow="9160" windowWidth="27800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22200" yWindow="3660" windowWidth="27800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="135">
   <si>
     <t>YEAR</t>
   </si>
@@ -408,6 +408,36 @@
   </si>
   <si>
     <t>https://youtu.be/3PupSWZg55I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error-related potential-based shared autonomy via deep recurrent reinforcement learning </t>
+  </si>
+  <si>
+    <t>Xiaofei Wang, Tim Chen, and Chin-Teng Lin</t>
+  </si>
+  <si>
+    <t>Journal of Neural Engineering</t>
+  </si>
+  <si>
+    <t>2022_JNE_Shared.jpg</t>
+  </si>
+  <si>
+    <t>2023_VR_Sickness.png</t>
+  </si>
+  <si>
+    <t>IEEE VR</t>
+  </si>
+  <si>
+    <t>2022_JNE_shared autonomy.pdf</t>
+  </si>
+  <si>
+    <t>2023_VR_Sickness.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An EEG-based Experiment on VR Sickness and Postural Instability While Walking in Virtual Environments </t>
+  </si>
+  <si>
+    <t>Carlos A. Tirado Cortes, Chin-Teng Lin, Tien-Thong Nguyen Do, and Tim Chen</t>
   </si>
 </sst>
 </file>
@@ -913,18 +943,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1280,18 +1311,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="55" style="2" customWidth="1"/>
-    <col min="3" max="4" width="43.1640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="3" max="4" width="43.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
@@ -1303,10 +1334,10 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1319,477 +1350,517 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
+        <v>133</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>2022</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2021</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2021</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E5" t="s">
         <v>118</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F5" t="s">
         <v>117</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>2021</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E6" t="s">
         <v>99</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F6" t="s">
         <v>98</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>2020</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E7" t="s">
         <v>62</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F7" t="s">
         <v>97</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+    <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>2020</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E8" t="s">
         <v>45</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+    <row r="9" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>2019</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E9" t="s">
         <v>46</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F9" t="s">
         <v>79</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+    <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>2019</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D10" t="s">
         <v>63</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E10" t="s">
         <v>47</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+    <row r="11" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>2019</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E11" t="s">
         <v>48</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>2018</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C12" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E12" t="s">
         <v>49</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F12" t="s">
         <v>76</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+    <row r="13" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>2017</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C13" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D13" t="s">
         <v>20</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E13" t="s">
         <v>50</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F13" t="s">
         <v>75</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>2016</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C14" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E14" t="s">
         <v>51</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F14" t="s">
         <v>74</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>2016</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C15" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E15" t="s">
         <v>52</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F15" t="s">
         <v>73</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>2016</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C16" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E16" t="s">
         <v>53</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F16" t="s">
         <v>71</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G16" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>2015</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C17" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D17" t="s">
         <v>22</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E17" t="s">
         <v>55</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F17" t="s">
         <v>72</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>2015</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C18" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D18" t="s">
         <v>22</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E18" t="s">
         <v>54</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F18" t="s">
         <v>70</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G18" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>2015</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C19" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D19" t="s">
         <v>20</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E19" t="s">
         <v>56</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F19" t="s">
         <v>69</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>2014</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C20" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D20" t="s">
         <v>31</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E20" t="s">
         <v>57</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F20" t="s">
         <v>68</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>2014</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C21" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D21" t="s">
         <v>20</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E21" t="s">
         <v>58</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F21" t="s">
         <v>67</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G21" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+    <row r="22" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>2013</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C22" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E22" t="s">
         <v>59</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F22" t="s">
         <v>66</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+    <row r="23" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>2013</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D23" t="s">
         <v>37</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E23" t="s">
         <v>60</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F23" t="s">
         <v>65</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G23" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>2011</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C24" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D24" t="s">
         <v>38</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E24" t="s">
         <v>61</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F24" t="s">
         <v>64</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G24" t="s">
         <v>95</v>
       </c>
     </row>

--- a/markdown_gen/publications.xlsx
+++ b/markdown_gen/publications.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/GitHub/ht-timchen.github.io/markdown_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACD9E9D-C359-B744-B830-AAF9ACE1BDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3578EEC-1423-004D-A6C4-D781DF51C7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22200" yWindow="3660" windowWidth="27800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="136">
   <si>
     <t>YEAR</t>
   </si>
@@ -438,6 +438,9 @@
   </si>
   <si>
     <t>Carlos A. Tirado Cortes, Chin-Teng Lin, Tien-Thong Nguyen Do, and Tim Chen</t>
+  </si>
+  <si>
+    <t>https://youtu.be/c5vwmdgTReA</t>
   </si>
 </sst>
 </file>
@@ -943,16 +946,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1314,7 +1314,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1369,6 +1369,9 @@
       <c r="F2" t="s">
         <v>132</v>
       </c>
+      <c r="G2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -1440,7 +1443,7 @@
       <c r="A6">
         <v>2021</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1753,7 +1756,7 @@
       <c r="A20">
         <v>2014</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C20" t="s">
@@ -1776,7 +1779,7 @@
       <c r="A21">
         <v>2014</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C21" t="s">
@@ -1845,7 +1848,7 @@
       <c r="A24">
         <v>2011</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C24" t="s">

--- a/markdown_gen/publications.xlsx
+++ b/markdown_gen/publications.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/GitHub/ht-timchen.github.io/markdown_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3578EEC-1423-004D-A6C4-D781DF51C7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149B967A-7186-AD4B-8B4E-9B00F537908E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22200" yWindow="3660" windowWidth="27800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="139">
   <si>
     <t>YEAR</t>
   </si>
@@ -441,6 +441,15 @@
   </si>
   <si>
     <t>https://youtu.be/c5vwmdgTReA</t>
+  </si>
+  <si>
+    <t>The Effect of Visual and Auditory Modality Mismatching between Distraction and Warning on Pedestrian Street Crossing Behavior</t>
+  </si>
+  <si>
+    <t>IEEE ISMAR</t>
+  </si>
+  <si>
+    <t>Renjie Wu, and  Tim Chen</t>
   </si>
 </sst>
 </file>
@@ -1311,10 +1320,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1355,65 +1364,56 @@
         <v>2023</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="G3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1421,22 +1421,22 @@
         <v>2021</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1444,45 +1444,45 @@
         <v>2021</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>101</v>
+        <v>114</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="G6" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>102</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1490,42 +1490,42 @@
         <v>2020</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1533,19 +1533,22 @@
         <v>2019</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>63</v>
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1553,88 +1556,85 @@
         <v>2019</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2019</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>48</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>2018</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>110</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>17</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>49</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>76</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="14" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>2017</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>108</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>50</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>75</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2016</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1642,22 +1642,22 @@
         <v>2016</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1665,114 +1665,114 @@
         <v>2016</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>53</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
         <v>71</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2015</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2015</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2015</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2015</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>107</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>20</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>56</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>69</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2014</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1780,45 +1780,45 @@
         <v>2014</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2014</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>111</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>20</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>58</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F22" t="s">
         <v>67</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G22" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2013</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1826,44 +1826,67 @@
         <v>2013</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2013</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>37</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>60</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F24" t="s">
         <v>65</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G24" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>2011</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>44</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>38</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>61</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" t="s">
         <v>64</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G25" t="s">
         <v>95</v>
       </c>
     </row>

--- a/markdown_gen/publications.xlsx
+++ b/markdown_gen/publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/GitHub/ht-timchen.github.io/markdown_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149B967A-7186-AD4B-8B4E-9B00F537908E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7086D40-C16B-1647-98E9-25E5F1DA89E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22200" yWindow="3660" windowWidth="27800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9960" yWindow="4580" windowWidth="27800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="141">
   <si>
     <t>YEAR</t>
   </si>
@@ -450,6 +450,12 @@
   </si>
   <si>
     <t>Renjie Wu, and  Tim Chen</t>
+  </si>
+  <si>
+    <t>2023_ISMAR_Mismatch.png</t>
+  </si>
+  <si>
+    <t>2023_ISMAR_Mismatch.pdf</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1329,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1372,6 +1378,12 @@
       <c r="D2" s="2" t="s">
         <v>137</v>
       </c>
+      <c r="E2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A3">

--- a/markdown_gen/publications.xlsx
+++ b/markdown_gen/publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/GitHub/ht-timchen.github.io/markdown_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7086D40-C16B-1647-98E9-25E5F1DA89E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5EECFC-07B7-9245-83F2-C77948FD7C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9960" yWindow="4580" windowWidth="27800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21280" yWindow="4900" windowWidth="27800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="142">
   <si>
     <t>YEAR</t>
   </si>
@@ -456,6 +456,9 @@
   </si>
   <si>
     <t>2023_ISMAR_Mismatch.pdf</t>
+  </si>
+  <si>
+    <t>https://youtu.be/0hMG3Ra4XE8</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1332,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1384,6 +1387,9 @@
       <c r="F2" t="s">
         <v>140</v>
       </c>
+      <c r="G2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A3">

--- a/markdown_gen/publications.xlsx
+++ b/markdown_gen/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/GitHub/ht-timchen.github.io/markdown_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5EECFC-07B7-9245-83F2-C77948FD7C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B89659-C737-F049-8315-9ADBE06F3385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21280" yWindow="4900" windowWidth="27800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9880" yWindow="9220" windowWidth="27800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="147">
   <si>
     <t>YEAR</t>
   </si>
@@ -459,6 +459,21 @@
   </si>
   <si>
     <t>https://youtu.be/0hMG3Ra4XE8</t>
+  </si>
+  <si>
+    <t>In Defense of Kalman Filtering for Polyp Tracking from Colonoscopy Videos</t>
+  </si>
+  <si>
+    <t>David Butler, Yuan Zhang, Tim Chen, Seon Ho Shin, Rajvinder Singh, and Gustavo Carneiro</t>
+  </si>
+  <si>
+    <t>IEEE ISBI</t>
+  </si>
+  <si>
+    <t>2022_ISBI_Track.png</t>
+  </si>
+  <si>
+    <t>2022_ISBI_Track.pdf</t>
   </si>
 </sst>
 </file>
@@ -1329,10 +1344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1419,42 +1434,39 @@
         <v>2022</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>126</v>
+        <v>142</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1462,22 +1474,22 @@
         <v>2021</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F6" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1485,45 +1497,45 @@
         <v>2021</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>101</v>
+        <v>114</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>102</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1531,42 +1543,42 @@
         <v>2020</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1574,19 +1586,22 @@
         <v>2019</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="G11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1594,88 +1609,85 @@
         <v>2019</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2019</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>48</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>2018</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>110</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>17</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>49</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>76</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="15" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>2017</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>108</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>20</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>50</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>75</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2016</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1683,22 +1695,22 @@
         <v>2016</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1706,114 +1718,114 @@
         <v>2016</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>53</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" t="s">
         <v>71</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2015</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2015</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2015</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2015</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>107</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>20</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>56</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
         <v>69</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2014</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -1821,45 +1833,45 @@
         <v>2014</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2014</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>111</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>20</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>58</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
         <v>67</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G23" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>2013</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1867,44 +1879,67 @@
         <v>2013</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2013</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>37</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>60</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" t="s">
         <v>65</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G25" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>2011</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>44</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>38</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>61</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
         <v>64</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G26" t="s">
         <v>95</v>
       </c>
     </row>

--- a/markdown_gen/publications.xlsx
+++ b/markdown_gen/publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/GitHub/ht-timchen.github.io/markdown_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B89659-C737-F049-8315-9ADBE06F3385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E62682-D9A4-B245-A87F-7FADD9FDCC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9880" yWindow="9220" windowWidth="27800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6400" yWindow="3240" windowWidth="27800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="154">
   <si>
     <t>YEAR</t>
   </si>
@@ -323,6 +323,156 @@
   </si>
   <si>
     <t>ACM CHI EA</t>
+  </si>
+  <si>
+    <t>A Drone Nearly Hit Me! A Reflection on the Human Factors of Drone Collisions</t>
+  </si>
+  <si>
+    <t>https://youtu.be/xAMALgG8w7w</t>
+  </si>
+  <si>
+    <t>Jun Xing, Tim Chen, and Li-Yi Wei</t>
+  </si>
+  <si>
+    <t>Udayan Umapathi, Tim Chen, Stefanie Mueller, Ludwig Wall, Anna Seufert, and Patrick Baudisch</t>
+  </si>
+  <si>
+    <t>Harshit Agrawal, Udayan Umapathi, Robert Kovacs, Johannes Frohnhofen, Tim Chen, Stefanie Mueller, and Patrick Baudisch</t>
+  </si>
+  <si>
+    <t>Dustin Beyer, Serafima Gurevich, Stefanie Mueller, Tim Chen, and Patrick Baudisch</t>
+  </si>
+  <si>
+    <t>Robert Kovacs, Anna Seufert, Ludwig Wall, Tim Chen, Florian Meinel, Willi Müller, Si-jing You, Maximilian Brehm, Jonathan Striebel, Yannis Kommana, Alexander Popiak, Thomas Bläsius, and Patrick Baudisch</t>
+  </si>
+  <si>
+    <t>Alexandra Ion, Johannes Frohnhofen, Ludwig Wall, Robert Kovacs, Mirela Alistar, Jack Lindsay, Pedro Lopes, Tim Chen, and Patrick Baudisch</t>
+  </si>
+  <si>
+    <t>Avinash K. Singh, Tim Chen, Yu-Feng Cheng, Jung-Tai King, Li-Wei Ko, Klaus Gramann, and Chin-Teng Lin</t>
+  </si>
+  <si>
+    <t>Tim Chen, Tovi Grossman, Li-Yi Wei, Ryan Schmidt, Bjorn Hartmann, George Fitzmaurice, and Maneesh Agrawala</t>
+  </si>
+  <si>
+    <t>Eugene Lei, Ying-Chieh Chen, Tim Chen, and Chun-Fa Chang</t>
+  </si>
+  <si>
+    <t>NeuroImage (h5-i=115)</t>
+  </si>
+  <si>
+    <t>Effects of Level of Immersion on Virtual Training Transfer of Bimanual Assembly Tasks</t>
+  </si>
+  <si>
+    <t>Songjia Shen, Tim Chen, William Raffe, and Tuck Wah Leong</t>
+  </si>
+  <si>
+    <t>Frontiers in VR</t>
+  </si>
+  <si>
+    <t>2021_Frontier_Assembly.pdf</t>
+  </si>
+  <si>
+    <t>2021_Frontier_Assembly.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/wdodl_YrNzs</t>
+  </si>
+  <si>
+    <t>The Effects of Virtual and Physical Elevation on Physiological Stress during Virtual Reality Height Exposure</t>
+  </si>
+  <si>
+    <t>Howe Yuan Zhu, Tim Chen, and Chin-Teng Lin</t>
+  </si>
+  <si>
+    <t>2021_TVCG_VRPlank.pdf</t>
+  </si>
+  <si>
+    <t>2021_TVCG_VRPlank.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/3PupSWZg55I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error-related potential-based shared autonomy via deep recurrent reinforcement learning </t>
+  </si>
+  <si>
+    <t>Xiaofei Wang, Tim Chen, and Chin-Teng Lin</t>
+  </si>
+  <si>
+    <t>Journal of Neural Engineering</t>
+  </si>
+  <si>
+    <t>2022_JNE_Shared.jpg</t>
+  </si>
+  <si>
+    <t>2023_VR_Sickness.png</t>
+  </si>
+  <si>
+    <t>IEEE VR</t>
+  </si>
+  <si>
+    <t>2022_JNE_shared autonomy.pdf</t>
+  </si>
+  <si>
+    <t>2023_VR_Sickness.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An EEG-based Experiment on VR Sickness and Postural Instability While Walking in Virtual Environments </t>
+  </si>
+  <si>
+    <t>Carlos A. Tirado Cortes, Chin-Teng Lin, Tien-Thong Nguyen Do, and Tim Chen</t>
+  </si>
+  <si>
+    <t>https://youtu.be/c5vwmdgTReA</t>
+  </si>
+  <si>
+    <t>The Effect of Visual and Auditory Modality Mismatching between Distraction and Warning on Pedestrian Street Crossing Behavior</t>
+  </si>
+  <si>
+    <t>IEEE ISMAR</t>
+  </si>
+  <si>
+    <t>Renjie Wu, and  Tim Chen</t>
+  </si>
+  <si>
+    <t>2023_ISMAR_Mismatch.png</t>
+  </si>
+  <si>
+    <t>2023_ISMAR_Mismatch.pdf</t>
+  </si>
+  <si>
+    <t>https://youtu.be/0hMG3Ra4XE8</t>
+  </si>
+  <si>
+    <t>In Defense of Kalman Filtering for Polyp Tracking from Colonoscopy Videos</t>
+  </si>
+  <si>
+    <t>David Butler, Yuan Zhang, Tim Chen, Seon Ho Shin, Rajvinder Singh, and Gustavo Carneiro</t>
+  </si>
+  <si>
+    <t>IEEE ISBI</t>
+  </si>
+  <si>
+    <t>2022_ISBI_Track.png</t>
+  </si>
+  <si>
+    <t>2022_ISBI_Track.pdf</t>
+  </si>
+  <si>
+    <t>AAAI</t>
+  </si>
+  <si>
+    <t>2024_AAAI_SBV.png</t>
+  </si>
+  <si>
+    <t>2024_AAAI_WebVLN.png</t>
+  </si>
+  <si>
+    <t>WebVLN: Vision-and-Language Navigation on Websites</t>
+  </si>
+  <si>
+    <t>Qi Chen, Dileepa Pitawela, Gengze Zhou, Tim Chen, and Qi Wu</t>
   </si>
   <si>
     <r>
@@ -330,7 +480,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <u/>
         <sz val="12"/>
         <color theme="1"/>
@@ -341,146 +490,17 @@
     </r>
   </si>
   <si>
-    <t>A Drone Nearly Hit Me! A Reflection on the Human Factors of Drone Collisions</t>
-  </si>
-  <si>
-    <t>https://youtu.be/xAMALgG8w7w</t>
-  </si>
-  <si>
-    <t>Jun Xing, Tim Chen, and Li-Yi Wei</t>
-  </si>
-  <si>
-    <t>Udayan Umapathi, Tim Chen, Stefanie Mueller, Ludwig Wall, Anna Seufert, and Patrick Baudisch</t>
-  </si>
-  <si>
-    <t>Harshit Agrawal, Udayan Umapathi, Robert Kovacs, Johannes Frohnhofen, Tim Chen, Stefanie Mueller, and Patrick Baudisch</t>
-  </si>
-  <si>
-    <t>Dustin Beyer, Serafima Gurevich, Stefanie Mueller, Tim Chen, and Patrick Baudisch</t>
-  </si>
-  <si>
-    <t>Robert Kovacs, Anna Seufert, Ludwig Wall, Tim Chen, Florian Meinel, Willi Müller, Si-jing You, Maximilian Brehm, Jonathan Striebel, Yannis Kommana, Alexander Popiak, Thomas Bläsius, and Patrick Baudisch</t>
-  </si>
-  <si>
-    <t>Alexandra Ion, Johannes Frohnhofen, Ludwig Wall, Robert Kovacs, Mirela Alistar, Jack Lindsay, Pedro Lopes, Tim Chen, and Patrick Baudisch</t>
-  </si>
-  <si>
-    <t>Avinash K. Singh, Tim Chen, Yu-Feng Cheng, Jung-Tai King, Li-Wei Ko, Klaus Gramann, and Chin-Teng Lin</t>
-  </si>
-  <si>
-    <t>Tim Chen, Tovi Grossman, Li-Yi Wei, Ryan Schmidt, Bjorn Hartmann, George Fitzmaurice, and Maneesh Agrawala</t>
-  </si>
-  <si>
-    <t>Eugene Lei, Ying-Chieh Chen, Tim Chen, and Chun-Fa Chang</t>
-  </si>
-  <si>
-    <t>NeuroImage (h5-i=115)</t>
-  </si>
-  <si>
-    <t>Effects of Level of Immersion on Virtual Training Transfer of Bimanual Assembly Tasks</t>
-  </si>
-  <si>
-    <t>Songjia Shen, Tim Chen, William Raffe, and Tuck Wah Leong</t>
-  </si>
-  <si>
-    <t>Frontiers in VR</t>
-  </si>
-  <si>
-    <t>2021_Frontier_Assembly.pdf</t>
-  </si>
-  <si>
-    <t>2021_Frontier_Assembly.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/wdodl_YrNzs</t>
-  </si>
-  <si>
-    <t>The Effects of Virtual and Physical Elevation on Physiological Stress during Virtual Reality Height Exposure</t>
-  </si>
-  <si>
-    <t>Howe Yuan Zhu, Tim Chen, and Chin-Teng Lin</t>
-  </si>
-  <si>
-    <t>2021_TVCG_VRPlank.pdf</t>
-  </si>
-  <si>
-    <t>2021_TVCG_VRPlank.jpg</t>
-  </si>
-  <si>
-    <t>https://youtu.be/3PupSWZg55I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error-related potential-based shared autonomy via deep recurrent reinforcement learning </t>
-  </si>
-  <si>
-    <t>Xiaofei Wang, Tim Chen, and Chin-Teng Lin</t>
-  </si>
-  <si>
-    <t>Journal of Neural Engineering</t>
-  </si>
-  <si>
-    <t>2022_JNE_Shared.jpg</t>
-  </si>
-  <si>
-    <t>2023_VR_Sickness.png</t>
-  </si>
-  <si>
-    <t>IEEE VR</t>
-  </si>
-  <si>
-    <t>2022_JNE_shared autonomy.pdf</t>
-  </si>
-  <si>
-    <t>2023_VR_Sickness.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">An EEG-based Experiment on VR Sickness and Postural Instability While Walking in Virtual Environments </t>
-  </si>
-  <si>
-    <t>Carlos A. Tirado Cortes, Chin-Teng Lin, Tien-Thong Nguyen Do, and Tim Chen</t>
-  </si>
-  <si>
-    <t>https://youtu.be/c5vwmdgTReA</t>
-  </si>
-  <si>
-    <t>The Effect of Visual and Auditory Modality Mismatching between Distraction and Warning on Pedestrian Street Crossing Behavior</t>
-  </si>
-  <si>
-    <t>IEEE ISMAR</t>
-  </si>
-  <si>
-    <t>Renjie Wu, and  Tim Chen</t>
-  </si>
-  <si>
-    <t>2023_ISMAR_Mismatch.png</t>
-  </si>
-  <si>
-    <t>2023_ISMAR_Mismatch.pdf</t>
-  </si>
-  <si>
-    <t>https://youtu.be/0hMG3Ra4XE8</t>
-  </si>
-  <si>
-    <t>In Defense of Kalman Filtering for Polyp Tracking from Colonoscopy Videos</t>
-  </si>
-  <si>
-    <t>David Butler, Yuan Zhang, Tim Chen, Seon Ho Shin, Rajvinder Singh, and Gustavo Carneiro</t>
-  </si>
-  <si>
-    <t>IEEE ISBI</t>
-  </si>
-  <si>
-    <t>2022_ISBI_Track.png</t>
-  </si>
-  <si>
-    <t>2022_ISBI_Track.pdf</t>
+    <t xml:space="preserve">Renjie Wu, Hu Wang, Feras Dayoub, and Tim Chen </t>
+  </si>
+  <si>
+    <t>Segment Beyond View: Handling Partially Missing Modality for Audio-Visual Semantic Segmentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -630,11 +650,16 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF282828"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -979,14 +1004,22 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1344,17 +1377,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="55" style="2" customWidth="1"/>
-    <col min="3" max="4" width="43.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="55" style="4" customWidth="1"/>
+    <col min="3" max="4" width="43.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
@@ -1364,13 +1397,13 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1383,84 +1416,75 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2023</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>137</v>
+        <v>2024</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2023</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>133</v>
+        <v>2024</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>130</v>
+        <v>150</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G3" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2022</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>142</v>
+        <v>2023</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="E4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F4" t="s">
-        <v>146</v>
+        <v>139</v>
+      </c>
+      <c r="G4" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2022</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>125</v>
+        <v>2023</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="E5" t="s">
         <v>128</v>
@@ -1468,478 +1492,521 @@
       <c r="F5" t="s">
         <v>131</v>
       </c>
+      <c r="G5" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2021</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>120</v>
+        <v>2022</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>142</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="F6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G6" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2021</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>116</v>
+        <v>2022</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G7" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2021</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>100</v>
+      <c r="B8" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2020</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>113</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2020</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
+        <v>2021</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2019</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>2020</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2019</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>2020</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>63</v>
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2019</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2019</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2019</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>16</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E15" t="s">
         <v>48</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="16" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>2018</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" t="s">
         <v>17</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E16" t="s">
         <v>49</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F16" t="s">
         <v>76</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="17" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>2017</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" t="s">
         <v>20</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E17" t="s">
         <v>50</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F17" t="s">
         <v>75</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2016</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2016</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2016</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>26</v>
+      <c r="B18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>2015</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
+        <v>2016</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>2015</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
+        <v>2016</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2015</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2015</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2015</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2014</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>2014</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" t="s">
-        <v>111</v>
+      <c r="C23" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="D23" t="s">
         <v>20</v>
       </c>
       <c r="E23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2014</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2014</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
         <v>58</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F25" t="s">
         <v>67</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G25" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="26" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>2013</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E26" t="s">
         <v>59</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F26" t="s">
         <v>66</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G26" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="27" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>2013</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" t="s">
         <v>37</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E27" t="s">
         <v>60</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F27" t="s">
         <v>65</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G27" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>2011</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B28" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D28" t="s">
         <v>38</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E28" t="s">
         <v>61</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F28" t="s">
         <v>64</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G28" t="s">
         <v>95</v>
       </c>
     </row>

--- a/markdown_gen/publications.xlsx
+++ b/markdown_gen/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/GitHub/ht-timchen.github.io/markdown_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E62682-D9A4-B245-A87F-7FADD9FDCC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3160D6E-8076-D046-9AF6-86FDEAB0D6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="3240" windowWidth="27800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8980" yWindow="5320" windowWidth="27800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="156">
   <si>
     <t>YEAR</t>
   </si>
@@ -494,6 +494,12 @@
   </si>
   <si>
     <t>Segment Beyond View: Handling Partially Missing Modality for Audio-Visual Semantic Segmentation</t>
+  </si>
+  <si>
+    <t>2024_AAAI_SBV.pdf</t>
+  </si>
+  <si>
+    <t>2024_AAAI_WebVLN.pdf</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1010,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1015,11 +1021,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1380,13 +1383,13 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="55" style="4" customWidth="1"/>
+    <col min="2" max="2" width="55" style="1" customWidth="1"/>
     <col min="3" max="4" width="43.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" customWidth="1"/>
@@ -1397,7 +1400,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1420,7 +1423,7 @@
       <c r="A2">
         <v>2024</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1431,13 +1434,16 @@
       </c>
       <c r="E2" t="s">
         <v>147</v>
+      </c>
+      <c r="F2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2024</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1448,13 +1454,16 @@
       </c>
       <c r="E3" t="s">
         <v>148</v>
+      </c>
+      <c r="F3" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2023</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1477,7 +1486,7 @@
       <c r="A5">
         <v>2023</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1500,7 +1509,7 @@
       <c r="A6">
         <v>2022</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1520,7 +1529,7 @@
       <c r="A7">
         <v>2022</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1540,7 +1549,7 @@
       <c r="A8">
         <v>2021</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1563,7 +1572,7 @@
       <c r="A9">
         <v>2021</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1586,7 +1595,7 @@
       <c r="A10">
         <v>2021</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1609,7 +1618,7 @@
       <c r="A11">
         <v>2020</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1632,7 +1641,7 @@
       <c r="A12">
         <v>2020</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1652,7 +1661,7 @@
       <c r="A13">
         <v>2019</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1675,7 +1684,7 @@
       <c r="A14">
         <v>2019</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1695,7 +1704,7 @@
       <c r="A15">
         <v>2019</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1715,7 +1724,7 @@
       <c r="A16">
         <v>2018</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1738,7 +1747,7 @@
       <c r="A17">
         <v>2017</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1761,7 +1770,7 @@
       <c r="A18">
         <v>2016</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1784,7 +1793,7 @@
       <c r="A19">
         <v>2016</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1807,7 +1816,7 @@
       <c r="A20">
         <v>2016</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1830,7 +1839,7 @@
       <c r="A21">
         <v>2015</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1853,7 +1862,7 @@
       <c r="A22">
         <v>2015</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1876,7 +1885,7 @@
       <c r="A23">
         <v>2015</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1899,7 +1908,7 @@
       <c r="A24">
         <v>2014</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1922,7 +1931,7 @@
       <c r="A25">
         <v>2014</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1945,7 +1954,7 @@
       <c r="A26">
         <v>2013</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1968,7 +1977,7 @@
       <c r="A27">
         <v>2013</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1991,7 +2000,7 @@
       <c r="A28">
         <v>2011</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="1" t="s">

--- a/markdown_gen/publications.xlsx
+++ b/markdown_gen/publications.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/GitHub/ht-timchen.github.io/markdown_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3160D6E-8076-D046-9AF6-86FDEAB0D6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284A8631-0E3D-084D-9AC1-5121D33EDEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8980" yWindow="5320" windowWidth="27800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="160">
   <si>
     <t>YEAR</t>
   </si>
@@ -501,14 +501,33 @@
   <si>
     <t>2024_AAAI_WebVLN.pdf</t>
   </si>
+  <si>
+    <t>Learning Subjective Image Quality Assessment for Transvaginal Ultrasound Scans from Multi-Annotator Labels</t>
+  </si>
+  <si>
+    <t>Daniel Petashvili, Hu Wang, Alison Deslandes, Jodie Avery, George Condous, Gustavo Carneiro, Mary Hull, Tim Chen</t>
+  </si>
+  <si>
+    <t>ISBI</t>
+  </si>
+  <si>
+    <t>2024_ISBI_IQA.png</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -968,62 +987,65 @@
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1380,10 +1402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1459,27 +1481,21 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2023</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>135</v>
+        <v>2024</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G4" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1487,42 +1503,45 @@
         <v>2023</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="G5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="F6" t="s">
-        <v>145</v>
+        <v>131</v>
+      </c>
+      <c r="G6" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1530,42 +1549,39 @@
         <v>2022</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>125</v>
+        <v>141</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G8" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1573,68 +1589,68 @@
         <v>2021</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F9" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2021</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2021</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>99</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>98</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2020</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1642,42 +1658,42 @@
         <v>2020</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>97</v>
+      </c>
+      <c r="G12" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1685,131 +1701,131 @@
         <v>2019</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" t="s">
-        <v>63</v>
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="G14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2019</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2019</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>16</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>48</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>2018</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>17</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>49</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
         <v>76</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="18" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>2017</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>20</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>50</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" t="s">
         <v>75</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2016</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2016</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1817,160 +1833,160 @@
         <v>2016</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" t="s">
-        <v>22</v>
+        <v>42</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2015</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2015</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2015</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>20</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>56</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F24" t="s">
         <v>69</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G24" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>2014</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" t="s">
-        <v>68</v>
-      </c>
-      <c r="G24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2014</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2014</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>20</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>58</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
         <v>67</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G26" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>2013</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1978,44 +1994,67 @@
         <v>2013</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2013</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>37</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>60</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F28" t="s">
         <v>65</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>2011</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>38</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>61</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F29" t="s">
         <v>64</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G29" t="s">
         <v>95</v>
       </c>
     </row>

--- a/markdown_gen/publications.xlsx
+++ b/markdown_gen/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/GitHub/ht-timchen.github.io/markdown_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284A8631-0E3D-084D-9AC1-5121D33EDEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F31D41-4AA0-9743-B8EF-9ABA9C929429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8980" yWindow="5320" windowWidth="27800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4180" yWindow="1820" windowWidth="27800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="167">
   <si>
     <t>YEAR</t>
   </si>
@@ -493,9 +493,6 @@
     <t xml:space="preserve">Renjie Wu, Hu Wang, Feras Dayoub, and Tim Chen </t>
   </si>
   <si>
-    <t>Segment Beyond View: Handling Partially Missing Modality for Audio-Visual Semantic Segmentation</t>
-  </si>
-  <si>
     <t>2024_AAAI_SBV.pdf</t>
   </si>
   <si>
@@ -512,6 +509,30 @@
   </si>
   <si>
     <t>2024_ISBI_IQA.png</t>
+  </si>
+  <si>
+    <t>A Longitudinal Study on The Effects of Circadian Fatigue on Sound Source Identification and Localization using Heads-Up Displays</t>
+  </si>
+  <si>
+    <t>Alexander G. Minton, Howe Yuan Zhu, Tim Chen, Yu-Kai Wang, Zhuoli Zhuang, Gina Notaro, Raquel Galvan, James Allen, Matthias D. Ziegler, Chin-Teng Lin</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>2025_CHI_LM.jpg</t>
+  </si>
+  <si>
+    <t>2025_CHI_XRAuthor.jpg</t>
+  </si>
+  <si>
+    <t>Educator Perceptions of XRAuthor: An Accessible Tool for Authoring Learning Content with Different Immersion Levels</t>
+  </si>
+  <si>
+    <t>Songjia Shen, Chek Tien Tan, Tim Chen, William L. Raffe, Tuck Wah Leong</t>
+  </si>
+  <si>
+    <t>Segment beyond View: Handling Partially Missing Modality for Audio-Visual</t>
   </si>
 </sst>
 </file>
@@ -1106,9 +1127,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1146,7 +1167,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1252,7 +1273,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1394,7 +1415,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1402,10 +1423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1441,483 +1462,471 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2024</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>153</v>
+        <v>2025</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="E3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2024</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>156</v>
+      <c r="B4" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>147</v>
+      </c>
+      <c r="F4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2023</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>133</v>
+        <v>2024</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G6" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F7" t="s">
-        <v>145</v>
+        <v>139</v>
+      </c>
+      <c r="G7" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F8" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="G8" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>120</v>
+        <v>141</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="E9" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E10" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
-      </c>
-      <c r="G10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2021</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>151</v>
+        <v>119</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="G11" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>98</v>
+      </c>
+      <c r="G13" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="G14" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" t="s">
-        <v>63</v>
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2019</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="G16" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A17">
+        <v>2019</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2019</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>2018</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D19" t="s">
         <v>17</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E19" t="s">
         <v>49</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F19" t="s">
         <v>76</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="20" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>2017</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D20" t="s">
         <v>20</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E20" t="s">
         <v>50</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F20" t="s">
         <v>75</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G20" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2016</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2016</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2016</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
+        <v>41</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
+        <v>42</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1925,136 +1934,182 @@
         <v>2015</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2015</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2015</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>2014</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>2014</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2014</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2014</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
         <v>58</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F28" t="s">
         <v>67</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G28" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="29" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>2013</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E29" t="s">
         <v>59</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F29" t="s">
         <v>66</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G29" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="30" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>2013</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D30" t="s">
         <v>37</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E30" t="s">
         <v>60</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F30" t="s">
         <v>65</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G30" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>2011</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D31" t="s">
         <v>38</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E31" t="s">
         <v>61</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F31" t="s">
         <v>64</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G31" t="s">
         <v>95</v>
       </c>
     </row>

--- a/markdown_gen/publications.xlsx
+++ b/markdown_gen/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/GitHub/ht-timchen.github.io/markdown_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F31D41-4AA0-9743-B8EF-9ABA9C929429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3BC0A1-8D6A-1A4D-96A7-B469B3D3DD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4180" yWindow="1820" windowWidth="27800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="168">
   <si>
     <t>YEAR</t>
   </si>
@@ -533,6 +533,9 @@
   </si>
   <si>
     <t>Segment beyond View: Handling Partially Missing Modality for Audio-Visual</t>
+  </si>
+  <si>
+    <t>2024_ISBI_TVUS.pdf</t>
   </si>
 </sst>
 </file>
@@ -1426,7 +1429,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1552,6 +1555,9 @@
       <c r="E6" t="s">
         <v>158</v>
       </c>
+      <c r="F6" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A7">

--- a/markdown_gen/publications.xlsx
+++ b/markdown_gen/publications.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/GitHub/ht-timchen.github.io/markdown_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3BC0A1-8D6A-1A4D-96A7-B469B3D3DD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9DE842-D0F8-FD4E-BBA6-997999F44A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4180" yWindow="1820" windowWidth="27800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="176">
   <si>
     <t>YEAR</t>
   </si>
@@ -536,6 +549,30 @@
   </si>
   <si>
     <t>2024_ISBI_TVUS.pdf</t>
+  </si>
+  <si>
+    <t>CLOC: Contrastive Learning for Ordinal Classification with Multi-Margin N-pair Loss</t>
+  </si>
+  <si>
+    <t>Dileepa Pitawela, Gustavo Carneiro, Tim Chen</t>
+  </si>
+  <si>
+    <t>CVPR</t>
+  </si>
+  <si>
+    <t>2025_CVPR_Ordinal.png</t>
+  </si>
+  <si>
+    <t>2025_CHI_fatigue.pdf</t>
+  </si>
+  <si>
+    <t>2025_CHI_XRAuthor.pdf</t>
+  </si>
+  <si>
+    <t>https://youtu.be/aXunoZZKcs4</t>
+  </si>
+  <si>
+    <t>https://youtu.be/PnblYeE9gbs</t>
   </si>
 </sst>
 </file>
@@ -1426,10 +1463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1465,121 +1502,127 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2025</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2025</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>161</v>
       </c>
       <c r="E3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2025</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2024</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" t="s">
-        <v>147</v>
-      </c>
       <c r="F4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+      <c r="G4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2024</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>149</v>
+      <c r="B5" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>146</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2024</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2024</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>158</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2023</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1587,42 +1630,45 @@
         <v>2023</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F8" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="G8" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E9" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="F9" t="s">
-        <v>145</v>
+        <v>131</v>
+      </c>
+      <c r="G9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1630,42 +1676,39 @@
         <v>2022</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>125</v>
+        <v>141</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="F10" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
-      </c>
-      <c r="G11" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1673,68 +1716,68 @@
         <v>2021</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2021</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2021</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>99</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>98</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2020</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1742,42 +1785,42 @@
         <v>2020</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>97</v>
+      </c>
+      <c r="G15" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1785,131 +1828,131 @@
         <v>2019</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" t="s">
-        <v>63</v>
+        <v>11</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2019</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2019</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>16</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>48</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F19" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="20" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>2018</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>17</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>49</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>76</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="21" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>2017</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>20</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
         <v>75</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2016</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2016</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1917,160 +1960,160 @@
         <v>2016</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
+        <v>42</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2015</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D25" t="s">
         <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G25" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2015</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2015</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>20</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>56</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F27" t="s">
         <v>69</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G27" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2014</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" t="s">
-        <v>68</v>
-      </c>
-      <c r="G27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2014</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2014</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>20</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>58</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F29" t="s">
         <v>67</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G29" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>2013</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" t="s">
-        <v>66</v>
-      </c>
-      <c r="G29" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -2078,44 +2121,67 @@
         <v>2013</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2013</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>37</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>60</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F31" t="s">
         <v>65</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G31" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31">
+    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>2011</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>38</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
         <v>61</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F32" t="s">
         <v>64</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G32" t="s">
         <v>95</v>
       </c>
     </row>

--- a/markdown_gen/publications.xlsx
+++ b/markdown_gen/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timchen/GitHub/ht-timchen.github.io/markdown_gen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1227750/GitHub/ht-timchen.github.io/markdown_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9DE842-D0F8-FD4E-BBA6-997999F44A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08576DD-CB63-144B-A738-1464BE66E2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="1820" windowWidth="27800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8680" yWindow="5420" windowWidth="27800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="177">
   <si>
     <t>YEAR</t>
   </si>
@@ -573,6 +573,9 @@
   </si>
   <si>
     <t>https://youtu.be/PnblYeE9gbs</t>
+  </si>
+  <si>
+    <t>2025_CVPR_CLOC.pdf</t>
   </si>
 </sst>
 </file>
@@ -1466,7 +1469,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1518,6 +1521,9 @@
       <c r="E2" t="s">
         <v>171</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A3">

--- a/markdown_gen/publications.xlsx
+++ b/markdown_gen/publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1227750/GitHub/ht-timchen.github.io/markdown_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08576DD-CB63-144B-A738-1464BE66E2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669AD00C-216B-8B4B-90B7-4A030238B75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8680" yWindow="5420" windowWidth="27800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8680" yWindow="5420" windowWidth="32920" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="186">
   <si>
     <t>YEAR</t>
   </si>
@@ -577,12 +577,39 @@
   <si>
     <t>2025_CVPR_CLOC.pdf</t>
   </si>
+  <si>
+    <t>TAG</t>
+  </si>
+  <si>
+    <t>AI, Medical</t>
+  </si>
+  <si>
+    <t>XR</t>
+  </si>
+  <si>
+    <t>AI, XR</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>BCI, XR</t>
+  </si>
+  <si>
+    <t>BCI</t>
+  </si>
+  <si>
+    <t>Fabrication</t>
+  </si>
+  <si>
+    <t>Graphics</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -731,12 +758,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -1093,7 +1114,7 @@
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1101,10 +1122,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1466,10 +1484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1479,10 +1497,11 @@
     <col min="3" max="4" width="43.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="7" max="7" width="25.5" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1504,8 +1523,11 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2025</v>
       </c>
@@ -1524,8 +1546,11 @@
       <c r="F2" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="H2" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2025</v>
       </c>
@@ -1547,8 +1572,11 @@
       <c r="G3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2025</v>
       </c>
@@ -1570,12 +1598,15 @@
       <c r="G4" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2024</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1590,8 +1621,11 @@
       <c r="F5" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2024</v>
       </c>
@@ -1610,12 +1644,15 @@
       <c r="F6" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2024</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>155</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1630,8 +1667,11 @@
       <c r="F7" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2023</v>
       </c>
@@ -1653,8 +1693,11 @@
       <c r="G8" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2023</v>
       </c>
@@ -1676,8 +1719,11 @@
       <c r="G9" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -1696,8 +1742,11 @@
       <c r="F10" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -1716,8 +1765,11 @@
       <c r="F11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2021</v>
       </c>
@@ -1739,8 +1791,11 @@
       <c r="G12" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -1762,15 +1817,18 @@
       <c r="G13" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2021</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>151</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1785,8 +1843,11 @@
       <c r="G14" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2020</v>
       </c>
@@ -1808,8 +1869,11 @@
       <c r="G15" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2020</v>
       </c>
@@ -1828,8 +1892,11 @@
       <c r="F16" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2019</v>
       </c>
@@ -1851,8 +1918,11 @@
       <c r="G17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2019</v>
       </c>
@@ -1871,8 +1941,11 @@
       <c r="F18" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2019</v>
       </c>
@@ -1891,8 +1964,11 @@
       <c r="F19" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -1914,8 +1990,11 @@
       <c r="G20" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2017</v>
       </c>
@@ -1937,8 +2016,11 @@
       <c r="G21" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2016</v>
       </c>
@@ -1960,8 +2042,11 @@
       <c r="G22" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2016</v>
       </c>
@@ -1983,8 +2068,11 @@
       <c r="G23" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2016</v>
       </c>
@@ -2006,8 +2094,11 @@
       <c r="G24" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2015</v>
       </c>
@@ -2029,8 +2120,11 @@
       <c r="G25" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2015</v>
       </c>
@@ -2052,8 +2146,11 @@
       <c r="G26" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2015</v>
       </c>
@@ -2075,12 +2172,15 @@
       <c r="G27" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2014</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -2098,12 +2198,15 @@
       <c r="G28" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2014</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -2121,8 +2224,11 @@
       <c r="G29" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2013</v>
       </c>
@@ -2144,8 +2250,11 @@
       <c r="G30" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2013</v>
       </c>
@@ -2167,12 +2276,15 @@
       <c r="G31" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2011</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2189,6 +2301,9 @@
       </c>
       <c r="G32" t="s">
         <v>95</v>
+      </c>
+      <c r="H32" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/markdown_gen/publications.xlsx
+++ b/markdown_gen/publications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1227750/GitHub/ht-timchen.github.io/markdown_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669AD00C-216B-8B4B-90B7-4A030238B75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AED2C40-47CB-0949-B082-A00C1F0799CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8680" yWindow="5420" windowWidth="32920" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="4360" windowWidth="31220" windowHeight="20580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="205">
   <si>
     <t>YEAR</t>
   </si>
@@ -603,6 +603,63 @@
   </si>
   <si>
     <t>Graphics</t>
+  </si>
+  <si>
+    <t>Understanding the effects of stress on the P300 response during naturalistic simulation of heights exposure</t>
+  </si>
+  <si>
+    <t>Howe Yuan Zhu, Tim Chen, Chin-Teng Lin</t>
+  </si>
+  <si>
+    <t>PLOS One</t>
+  </si>
+  <si>
+    <t>2024_PLOS_P300.png</t>
+  </si>
+  <si>
+    <t>2024_PLOS_P300.pdf</t>
+  </si>
+  <si>
+    <t>HCII</t>
+  </si>
+  <si>
+    <t>SnapNCode: An Integrated Development Environment for Programming Physical Objects Interactions</t>
+  </si>
+  <si>
+    <t>Xiaoyan Wei, Zijian Yue, Tim Chen</t>
+  </si>
+  <si>
+    <t>2025_HCII_SnapCode.pdf</t>
+  </si>
+  <si>
+    <t>2025_HCII_SnapCode.png</t>
+  </si>
+  <si>
+    <t>2025_HCII_CAT.png</t>
+  </si>
+  <si>
+    <t>2025_HCII_CAT.pdf</t>
+  </si>
+  <si>
+    <t>Context-AI Tunes: Context-Aware AI-Generated Music for Stress Reduction</t>
+  </si>
+  <si>
+    <t>Xiaoyan Wei, Zebang Zhang, Zijian Yue, Tim Chen</t>
+  </si>
+  <si>
+    <t>Toward a Human-Centered AI-assisted Colonoscopy System in Australia</t>
+  </si>
+  <si>
+    <t>Hsiang-Tim Chen, Yuan Zhang, Gustavo Carneiro, Rajvinder Singh</t>
+  </si>
+  <si>
+    <t>2025_CHIW_AI-Colonoscopy.png</t>
+  </si>
+  <si>
+    <t>2025_CHIW_AI-Colonoscopy.pdf</t>
+  </si>
+  <si>
+    <t>CHI Interactive Health Workshop</t>
   </si>
 </sst>
 </file>
@@ -1484,10 +1541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1604,192 +1661,183 @@
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2024</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>152</v>
+        <v>2025</v>
+      </c>
+      <c r="B5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" t="s">
+        <v>201</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>202</v>
       </c>
       <c r="F5" t="s">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="H5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2024</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>150</v>
+        <v>2025</v>
+      </c>
+      <c r="B6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" t="s">
+        <v>193</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>195</v>
       </c>
       <c r="F6" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="H6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7">
+        <v>2025</v>
+      </c>
+      <c r="B7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>2024</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F7" t="s">
-        <v>167</v>
-      </c>
-      <c r="H7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2023</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>135</v>
+      <c r="B8" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E8" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G8" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="H8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>133</v>
+        <v>149</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="F9" t="s">
-        <v>131</v>
-      </c>
-      <c r="G9" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="H9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>142</v>
+        <v>2024</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E10" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="F10" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="H10" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2022</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>125</v>
+        <v>2024</v>
+      </c>
+      <c r="B11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" t="s">
+        <v>187</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
-      </c>
-      <c r="H11" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="E12" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="G12" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="H12" t="s">
         <v>179</v>
@@ -1797,172 +1845,175 @@
     </row>
     <row r="13" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>114</v>
+        <v>132</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E13" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="H13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="33" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="F14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="H14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>6</v>
+        <v>124</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="F15" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="H15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>121</v>
+      </c>
+      <c r="G16" t="s">
+        <v>123</v>
       </c>
       <c r="H16" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="G17" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="H17" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" t="s">
-        <v>63</v>
+        <v>101</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>98</v>
+      </c>
+      <c r="G18" t="s">
+        <v>102</v>
       </c>
       <c r="H18" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>97</v>
+      </c>
+      <c r="G19" t="s">
+        <v>96</v>
       </c>
       <c r="H19" t="s">
         <v>182</v>
@@ -1970,155 +2021,146 @@
     </row>
     <row r="20" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F23" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>26</v>
+        <v>109</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s">
         <v>184</v>
@@ -2126,25 +2168,25 @@
     </row>
     <row r="26" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G26" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s">
         <v>184</v>
@@ -2152,157 +2194,261 @@
     </row>
     <row r="27" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
+        <v>41</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G27" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>2014</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>30</v>
+        <v>2016</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" t="s">
-        <v>31</v>
+        <v>42</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G28" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>2014</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>32</v>
+        <v>2015</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>34</v>
+        <v>105</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G30" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F31" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G31" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A32">
+        <v>2014</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2014</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" t="s">
+        <v>92</v>
+      </c>
+      <c r="H33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2013</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" t="s">
+        <v>93</v>
+      </c>
+      <c r="H34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2013</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" t="s">
+        <v>94</v>
+      </c>
+      <c r="H35" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>2011</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D36" t="s">
         <v>38</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E36" t="s">
         <v>61</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F36" t="s">
         <v>64</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G36" t="s">
         <v>95</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H36" t="s">
         <v>185</v>
       </c>
     </row>

--- a/markdown_gen/publications.xlsx
+++ b/markdown_gen/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1227750/GitHub/ht-timchen.github.io/markdown_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AED2C40-47CB-0949-B082-A00C1F0799CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942466DC-D039-4B42-95AA-84AFE9597885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="4360" windowWidth="31220" windowHeight="20580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="205">
   <si>
     <t>YEAR</t>
   </si>
@@ -1544,7 +1544,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1816,6 +1816,9 @@
       <c r="F11" t="s">
         <v>190</v>
       </c>
+      <c r="H11" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A12">

--- a/markdown_gen/publications.xlsx
+++ b/markdown_gen/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1227750/GitHub/ht-timchen.github.io/markdown_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942466DC-D039-4B42-95AA-84AFE9597885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9C2E43-71B1-5543-8FC0-409612D4A069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="4360" windowWidth="31220" windowHeight="20580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -650,9 +650,6 @@
     <t>Toward a Human-Centered AI-assisted Colonoscopy System in Australia</t>
   </si>
   <si>
-    <t>Hsiang-Tim Chen, Yuan Zhang, Gustavo Carneiro, Rajvinder Singh</t>
-  </si>
-  <si>
     <t>2025_CHIW_AI-Colonoscopy.png</t>
   </si>
   <si>
@@ -660,6 +657,9 @@
   </si>
   <si>
     <t>CHI Interactive Health Workshop</t>
+  </si>
+  <si>
+    <t>Tim Chen, Yuan Zhang, Gustavo Carneiro, Rajvinder Singh</t>
   </si>
 </sst>
 </file>
@@ -1544,7 +1544,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1667,16 +1667,16 @@
         <v>200</v>
       </c>
       <c r="C5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>202</v>
-      </c>
-      <c r="F5" t="s">
-        <v>203</v>
       </c>
       <c r="H5" t="s">
         <v>178</v>

--- a/markdown_gen/publications.xlsx
+++ b/markdown_gen/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1227750/GitHub/ht-timchen.github.io/markdown_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9C2E43-71B1-5543-8FC0-409612D4A069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C569B317-B15C-374B-AE1B-77B9B77B6D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="4360" windowWidth="31220" windowHeight="20580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30500" yWindow="6620" windowWidth="31220" windowHeight="20580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="228">
   <si>
     <t>YEAR</t>
   </si>
@@ -660,6 +660,75 @@
   </si>
   <si>
     <t>Tim Chen, Yuan Zhang, Gustavo Carneiro, Rajvinder Singh</t>
+  </si>
+  <si>
+    <t>Understanding Annotation Error Propagation and Learning an Adaptive Policy for Expert Intervention in Barrett's Video Segmentation</t>
+  </si>
+  <si>
+    <t>Lokesha Rasanjalee, Dileepa Pitawela, Jin Tan, Rajvinder Singh, Tim Chen</t>
+  </si>
+  <si>
+    <t>International Symposium on Biomedical Imaging (ISBI)</t>
+  </si>
+  <si>
+    <t>OUGS: Active View Selection via Object-aware Uncertainty Estimation in 3DGS</t>
+  </si>
+  <si>
+    <t>Haiyi Li , Qi Chen , Denis Kalkofe ,Tim Chen</t>
+  </si>
+  <si>
+    <t>Eurographics</t>
+  </si>
+  <si>
+    <t>Graphics,XR</t>
+  </si>
+  <si>
+    <t>2026_EG_OUGS.jpg</t>
+  </si>
+  <si>
+    <t>2026_ISBI_L2D.jpg</t>
+  </si>
+  <si>
+    <t>2026_ISBI_L2D.pdf</t>
+  </si>
+  <si>
+    <t>Carlos Tirado Cortes, Yiheng Chi, Juno Kim, Tim Chen</t>
+  </si>
+  <si>
+    <t>Transaction on Visualisation and Computer Graphics (IEEE VR)</t>
+  </si>
+  <si>
+    <t>2026_TVCG_Cybersickness.jpg</t>
+  </si>
+  <si>
+    <t>2026_TVCG_Cybersickness.pdf</t>
+  </si>
+  <si>
+    <t>Kinematic Sickness: Understanding Cybersickness Through Body Kinematics</t>
+  </si>
+  <si>
+    <t>L2CU: Learning to Complement Unseen Users</t>
+  </si>
+  <si>
+    <t>2025_Access_L2CU.jpg</t>
+  </si>
+  <si>
+    <t>2025_Access_L2CU.pdf</t>
+  </si>
+  <si>
+    <t>Learning To Defer To A Population With Limited Demonstrations</t>
+  </si>
+  <si>
+    <t>DICTA</t>
+  </si>
+  <si>
+    <t>2025_DICTA_L2D.jpg</t>
+  </si>
+  <si>
+    <t>2025_DICTA_L2D.pdf</t>
+  </si>
+  <si>
+    <t>Nilesh Ramgolam, Gustavo Carneiro, Tim Chen</t>
   </si>
 </sst>
 </file>
@@ -1541,10 +1610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1584,76 +1653,67 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="E2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G3" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="H3" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>164</v>
+        <v>219</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>165</v>
+        <v>215</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>161</v>
+        <v>216</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="F4" t="s">
-        <v>173</v>
-      </c>
-      <c r="G4" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="H4" t="s">
         <v>179</v>
@@ -1661,137 +1721,143 @@
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2025</v>
-      </c>
-      <c r="B5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C5" t="s">
-        <v>204</v>
+        <v>2026</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>203</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="F5" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="H5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2025</v>
       </c>
-      <c r="B6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C6" t="s">
-        <v>193</v>
+      <c r="B6" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="E6" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="F6" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="H6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2025</v>
       </c>
-      <c r="B7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C7" t="s">
-        <v>199</v>
+      <c r="B7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="E7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2024</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>166</v>
+        <v>2025</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="F8" t="s">
-        <v>153</v>
+        <v>172</v>
+      </c>
+      <c r="G8" t="s">
+        <v>174</v>
       </c>
       <c r="H8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="F9" t="s">
-        <v>154</v>
+        <v>173</v>
+      </c>
+      <c r="G9" t="s">
+        <v>175</v>
       </c>
       <c r="H9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2024</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>156</v>
+        <v>2025</v>
+      </c>
+      <c r="B10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" t="s">
+        <v>204</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="E10" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="F10" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="H10" t="s">
         <v>178</v>
@@ -1799,273 +1865,261 @@
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11">
+        <v>2025</v>
+      </c>
+      <c r="B11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" t="s">
+        <v>194</v>
+      </c>
+      <c r="H11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2025</v>
+      </c>
+      <c r="B12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F12" t="s">
+        <v>197</v>
+      </c>
+      <c r="H12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>2024</v>
       </c>
-      <c r="B11" t="s">
-        <v>186</v>
-      </c>
-      <c r="C11" t="s">
-        <v>187</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E11" t="s">
-        <v>189</v>
-      </c>
-      <c r="F11" t="s">
-        <v>190</v>
-      </c>
-      <c r="H11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2023</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" t="s">
-        <v>138</v>
-      </c>
-      <c r="F12" t="s">
-        <v>139</v>
-      </c>
-      <c r="G12" t="s">
-        <v>140</v>
-      </c>
-      <c r="H12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2023</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>133</v>
+      <c r="B13" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="H13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E14" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="H14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2024</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" t="s">
+        <v>167</v>
+      </c>
+      <c r="H15" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2022</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15" t="s">
-        <v>130</v>
-      </c>
-      <c r="H15" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2021</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>120</v>
+        <v>2024</v>
+      </c>
+      <c r="B16" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" t="s">
+        <v>187</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="E16" t="s">
-        <v>122</v>
+        <v>189</v>
       </c>
       <c r="F16" t="s">
-        <v>121</v>
-      </c>
-      <c r="G16" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="H16" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="E17" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="F17" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="G17" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="H17" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="G18" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="H18" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>7</v>
+        <v>141</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="F19" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="H19" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="H20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="G21" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="H21" t="s">
         <v>179</v>
@@ -2073,305 +2127,302 @@
     </row>
     <row r="22" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" t="s">
-        <v>63</v>
+        <v>113</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="F22" t="s">
-        <v>78</v>
+        <v>116</v>
+      </c>
+      <c r="G22" t="s">
+        <v>118</v>
       </c>
       <c r="H22" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" t="s">
-        <v>16</v>
+        <v>101</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="F23" t="s">
-        <v>77</v>
+        <v>98</v>
+      </c>
+      <c r="G23" t="s">
+        <v>102</v>
       </c>
       <c r="H23" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="F24" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="G24" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="H24" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>75</v>
-      </c>
-      <c r="G25" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
+        <v>63</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" t="s">
-        <v>20</v>
+        <v>108</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E31" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F31" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G31" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>2014</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>30</v>
+        <v>2016</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F32" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G32" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>2014</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>32</v>
+        <v>2016</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" t="s">
-        <v>20</v>
+        <v>42</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F33" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G33" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s">
         <v>185</v>
@@ -2379,79 +2430,209 @@
     </row>
     <row r="34" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A34">
+        <v>2015</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" t="s">
+        <v>88</v>
+      </c>
+      <c r="H34" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2015</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" t="s">
+        <v>89</v>
+      </c>
+      <c r="H35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2015</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" t="s">
+        <v>90</v>
+      </c>
+      <c r="H36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2014</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2014</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G38" t="s">
+        <v>92</v>
+      </c>
+      <c r="H38" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>2013</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E39" t="s">
         <v>59</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F39" t="s">
         <v>66</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G39" t="s">
         <v>93</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H39" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A35">
+    <row r="40" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>2013</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D40" t="s">
         <v>37</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E40" t="s">
         <v>60</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F40" t="s">
         <v>65</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G40" t="s">
         <v>94</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H40" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36">
+    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>2011</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D41" t="s">
         <v>38</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E41" t="s">
         <v>61</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F41" t="s">
         <v>64</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G41" t="s">
         <v>95</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H41" t="s">
         <v>185</v>
       </c>
     </row>

--- a/markdown_gen/publications.xlsx
+++ b/markdown_gen/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1227750/GitHub/ht-timchen.github.io/markdown_gen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C569B317-B15C-374B-AE1B-77B9B77B6D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEE6F37-DE24-F341-97FD-EB29BB38D964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30500" yWindow="6620" windowWidth="31220" windowHeight="20580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="229">
   <si>
     <t>YEAR</t>
   </si>
@@ -729,6 +729,9 @@
   </si>
   <si>
     <t>Nilesh Ramgolam, Gustavo Carneiro, Tim Chen</t>
+  </si>
+  <si>
+    <t>2026_EG_OUGS.pdf</t>
   </si>
 </sst>
 </file>
@@ -1613,7 +1616,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1692,6 +1695,9 @@
       <c r="E3" t="s">
         <v>212</v>
       </c>
+      <c r="F3" t="s">
+        <v>228</v>
+      </c>
       <c r="H3" t="s">
         <v>211</v>
       </c>
